--- a/biology/Botanique/Benjamin_Daydon_Jackson/Benjamin_Daydon_Jackson.xlsx
+++ b/biology/Botanique/Benjamin_Daydon_Jackson/Benjamin_Daydon_Jackson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Daydon Jackson est un botaniste britannique, né le 3 avril 1846 à Londres et mort le 12 octobre 1927.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de la Société linnéenne de Londres, il en est le secrétaire de 1880 à 1902 et secrétaire général de 1902 à 1926. Il est conservateur des collections de Carl von Linné (1707-1778) à partir de 1926.
 Il supervise également l’édition de Pryor’s Flora of Herts (1887) et, avec Charles Baron Clarke (1832-1906), de New Genera and Species of Cyperaceae (1908) et d’Illustrations of Cyperaceae (1909).
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Life of John Gerard (1877).
 Life of Dr. William Turner (1878).
